--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="152">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,133 +52,145 @@
     <t>crap</t>
   </si>
   <si>
+    <t>ripped</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>ripped</t>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>stopped</t>
   </si>
   <si>
     <t>inches</t>
   </si>
   <si>
-    <t>hole</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>loose</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>junk</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>glue</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>lasted</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>pay</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>probably</t>
+    <t>description</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>half</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>maybe</t>
+    <t>minutes</t>
   </si>
   <si>
     <t>though</t>
@@ -187,174 +199,174 @@
     <t>sound</t>
   </si>
   <si>
-    <t>bit</t>
+    <t>seems</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>minutes</t>
+    <t>color</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>hold</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>look</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>need</t>
+    <t>34</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>put</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>even</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>favorite</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
+    <t>classic</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -364,87 +376,84 @@
     <t>great</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>expansion</t>
-  </si>
-  <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>best</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>enjoys</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>enjoy</t>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>fun</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>lego</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>ages</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>cute</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>playing</t>
   </si>
   <si>
-    <t>grandson</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>play</t>
   </si>
   <si>
@@ -454,10 +463,10 @@
     <t>year</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>kids</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -818,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -826,10 +835,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -908,16 +917,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -929,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -937,13 +946,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -955,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K4">
-        <v>0.8769230769230769</v>
+        <v>0.875</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -979,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -987,13 +996,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8275862068965517</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1005,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1029,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1037,13 +1046,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8095238095238095</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1055,19 +1064,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K6">
-        <v>0.85</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1079,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1087,13 +1096,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.765625</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1105,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K7">
-        <v>0.8494623655913979</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L7">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1129,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1137,13 +1146,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7407407407407407</v>
+        <v>0.734375</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1155,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K8">
-        <v>0.75</v>
+        <v>0.765625</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1179,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1187,13 +1196,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1208,16 +1217,16 @@
         <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K9">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1229,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1237,13 +1246,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7142857142857143</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1255,19 +1264,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K10">
-        <v>0.6376811594202898</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1279,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1308,16 +1317,16 @@
         <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K11">
-        <v>0.6226415094339622</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1329,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1337,13 +1346,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6956521739130435</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1355,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K12">
-        <v>0.5652797704447633</v>
+        <v>0.5681492109038737</v>
       </c>
       <c r="L12">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M12">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1379,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1387,13 +1396,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6881720430107527</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C13">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1405,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K13">
-        <v>0.5414937759336099</v>
+        <v>0.516597510373444</v>
       </c>
       <c r="L13">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="M13">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1429,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1437,13 +1446,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6824324324324325</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C14">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1455,19 +1464,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K14">
-        <v>0.4614754098360656</v>
+        <v>0.4713114754098361</v>
       </c>
       <c r="L14">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="M14">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1479,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>657</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1487,13 +1496,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6067961165048543</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C15">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1505,19 +1514,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K15">
-        <v>0.3962264150943396</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1529,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1537,13 +1546,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6050420168067226</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="C16">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D16">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1555,19 +1564,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K16">
-        <v>0.3944954128440367</v>
+        <v>0.3700305810397553</v>
       </c>
       <c r="L16">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M16">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1579,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1587,13 +1596,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1605,19 +1614,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K17">
-        <v>0.3650793650793651</v>
+        <v>0.35</v>
       </c>
       <c r="L17">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1629,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>120</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1637,13 +1646,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1655,19 +1664,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K18">
-        <v>0.3614457831325301</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="L18">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1679,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>106</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1687,7 +1696,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5789473684210527</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C19">
         <v>22</v>
@@ -1705,19 +1714,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K19">
-        <v>0.3404255319148936</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1729,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1737,13 +1746,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5777777777777777</v>
+        <v>0.6213592233009708</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1755,19 +1764,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K20">
-        <v>0.3272727272727273</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1779,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1787,13 +1796,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1805,31 +1814,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K21">
-        <v>0.319327731092437</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1837,13 +1846,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5625</v>
+        <v>0.6</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1855,19 +1864,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K22">
-        <v>0.25</v>
+        <v>0.265625</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1879,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1887,13 +1896,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5476190476190477</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1905,31 +1914,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K23">
-        <v>0.2324324324324324</v>
+        <v>0.2528735632183908</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="N23">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>142</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1937,13 +1946,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5370370370370371</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1955,19 +1964,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K24">
-        <v>0.224</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1979,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>97</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1987,13 +1996,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.527536231884058</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C25">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D25">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2005,31 +2014,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K25">
-        <v>0.2236842105263158</v>
+        <v>0.2447552447552448</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>59</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2037,13 +2046,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5172413793103449</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2055,19 +2064,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K26">
-        <v>0.2167832167832168</v>
+        <v>0.2365591397849462</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2079,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>112</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2087,13 +2096,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5161290322580645</v>
+        <v>0.5</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2105,19 +2114,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K27">
-        <v>0.2142857142857143</v>
+        <v>0.2265625</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2137,13 +2146,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4814814814814815</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2155,19 +2164,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K28">
         <v>0.2142857142857143</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2179,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2187,13 +2196,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4566929133858268</v>
+        <v>0.4724409448818898</v>
       </c>
       <c r="C29">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D29">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2205,31 +2214,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K29">
-        <v>0.2096774193548387</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L29">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>196</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2237,37 +2246,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4421052631578947</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C30">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K30">
-        <v>0.187719298245614</v>
+        <v>0.2088353413654618</v>
       </c>
       <c r="L30">
-        <v>214</v>
+        <v>52</v>
       </c>
       <c r="M30">
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2276,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>926</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2287,13 +2296,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4407582938388626</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C31">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="D31">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2305,19 +2314,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K31">
-        <v>0.1724137931034483</v>
+        <v>0.1956140350877193</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2326,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>72</v>
+        <v>917</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2337,13 +2346,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4337349397590362</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C32">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2355,19 +2364,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K32">
-        <v>0.1283422459893048</v>
+        <v>0.184</v>
       </c>
       <c r="L32">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2379,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>326</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2387,13 +2396,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4333333333333333</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2405,19 +2414,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K33">
-        <v>0.1282051282051282</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2429,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2440,10 +2449,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2455,19 +2464,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K34">
-        <v>0.1282051282051282</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2479,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2487,13 +2496,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.421875</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2505,31 +2514,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K35">
-        <v>0.1168831168831169</v>
+        <v>0.1143599740090968</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>136</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2558,28 +2567,28 @@
         <v>75</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K36">
-        <v>0.115009746588694</v>
+        <v>0.1030640668523677</v>
       </c>
       <c r="L36">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="N36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>1362</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2608,28 +2617,28 @@
         <v>37</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K37">
-        <v>0.1089385474860335</v>
+        <v>0.08288770053475936</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2637,13 +2646,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4047619047619048</v>
+        <v>0.4075829383886256</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="D38">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2655,19 +2664,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K38">
-        <v>0.0933852140077821</v>
+        <v>0.07782101167315175</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2679,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2687,13 +2696,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3947368421052632</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2705,31 +2714,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K39">
-        <v>0.07739938080495357</v>
+        <v>0.07586206896551724</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N39">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>298</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2737,13 +2746,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3707865168539326</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2755,31 +2764,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K40">
-        <v>0.07348242811501597</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2787,13 +2796,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3673469387755102</v>
+        <v>0.390625</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2805,31 +2814,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K41">
-        <v>0.06574394463667819</v>
+        <v>0.05733333333333333</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N41">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O41">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>270</v>
+        <v>707</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2837,13 +2846,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3636363636363636</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2855,31 +2864,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K42">
-        <v>0.05725699067909454</v>
+        <v>0.04859335038363171</v>
       </c>
       <c r="L42">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="N42">
-        <v>0.98</v>
+        <v>0.79</v>
       </c>
       <c r="O42">
-        <v>0.02000000000000002</v>
+        <v>0.21</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>708</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2887,13 +2896,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3488372093023256</v>
+        <v>0.375</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2905,31 +2914,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K43">
-        <v>0.04102564102564103</v>
+        <v>0.04627766599597585</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N43">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="O43">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>374</v>
+        <v>474</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2937,13 +2946,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3333333333333333</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2955,31 +2964,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K44">
-        <v>0.04024144869215292</v>
+        <v>0.03840682788051209</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N44">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="O44">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>477</v>
+        <v>676</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2987,13 +2996,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3283582089552239</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C45">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D45">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3005,31 +3014,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K45">
-        <v>0.03730017761989343</v>
+        <v>0.0301418439716312</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N45">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O45">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3037,13 +3046,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3114754098360656</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C46">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D46">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3055,31 +3064,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="K46">
-        <v>0.02982954545454546</v>
+        <v>0.02248677248677249</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N46">
-        <v>0.95</v>
+        <v>0.31</v>
       </c>
       <c r="O46">
-        <v>0.05000000000000004</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>683</v>
+        <v>739</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3087,13 +3096,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.293103448275862</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C47">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D47">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3105,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3113,13 +3122,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2871287128712871</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="C48">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D48">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3131,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>144</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3139,13 +3148,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2857142857142857</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3165,13 +3174,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.264957264957265</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C50">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3183,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3191,13 +3200,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2608695652173913</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="C51">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D51">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3209,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3217,13 +3226,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2551020408163265</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="C52">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3235,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3243,13 +3252,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2525773195876289</v>
+        <v>0.2567567567567567</v>
       </c>
       <c r="C53">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D53">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3261,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>145</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3269,13 +3278,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2432432432432433</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D54">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3287,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3295,13 +3304,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2310126582278481</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C55">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D55">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3313,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>243</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3321,13 +3330,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2133333333333333</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3339,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3347,25 +3356,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2113095238095238</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C57">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="D57">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="E57">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>530</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3373,13 +3382,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2101910828025478</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C58">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D58">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3391,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>124</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3399,25 +3408,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2010050251256282</v>
+        <v>0.2210144927536232</v>
       </c>
       <c r="C59">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D59">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E59">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>159</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3425,13 +3434,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="C60">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3443,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>112</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3451,25 +3460,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1979166666666667</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="C61">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E61">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3477,25 +3486,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1958762886597938</v>
+        <v>0.2065378900445765</v>
       </c>
       <c r="C62">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="D62">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>78</v>
+        <v>534</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3503,25 +3512,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1930379746835443</v>
+        <v>0.2060301507537688</v>
       </c>
       <c r="C63">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D63">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>255</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3529,13 +3538,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1884057971014493</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C64">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D64">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3547,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>224</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3555,13 +3564,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1868131868131868</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C65">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D65">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3573,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>74</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3581,25 +3590,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1864406779661017</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="C66">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D66">
         <v>22</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3607,25 +3616,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1775700934579439</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="C67">
         <v>19</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E67">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3633,25 +3642,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1729106628242075</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C68">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E68">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>287</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3659,13 +3668,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1675392670157068</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="C69">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D69">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3677,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>159</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3685,25 +3694,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1635514018691589</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="C70">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D70">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>179</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3711,13 +3720,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.15625</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="C71">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3729,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3737,25 +3746,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1438053097345133</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C72">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D72">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E72">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>387</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3763,13 +3772,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1428571428571428</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C73">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D73">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3781,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>150</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3789,13 +3798,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1311475409836066</v>
+        <v>0.1584699453551913</v>
       </c>
       <c r="C74">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D74">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3807,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3815,13 +3824,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1307692307692308</v>
+        <v>0.1570680628272251</v>
       </c>
       <c r="C75">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D75">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3833,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>113</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3841,25 +3850,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1255060728744939</v>
+        <v>0.1497797356828194</v>
       </c>
       <c r="C76">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D76">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E76">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>216</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3867,13 +3876,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1233766233766234</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C77">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D77">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3885,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3893,25 +3902,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1197916666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C78">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D78">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>169</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3919,25 +3928,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1165413533834586</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C79">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D79">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E79">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>235</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3945,25 +3954,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1153846153846154</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="C80">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D80">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E80">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>322</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3971,25 +3980,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1130952380952381</v>
+        <v>0.1255060728744939</v>
       </c>
       <c r="C81">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D81">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E81">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
       <c r="F81">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3997,25 +4006,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.106951871657754</v>
+        <v>0.125</v>
       </c>
       <c r="C82">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D82">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E82">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4023,13 +4032,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1046511627906977</v>
+        <v>0.1235294117647059</v>
       </c>
       <c r="C83">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D83">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E83">
         <v>0.05</v>
@@ -4041,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4049,25 +4058,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.09937888198757763</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="C84">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D84">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>145</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4075,13 +4084,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.0949367088607595</v>
+        <v>0.1178082191780822</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D85">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4093,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>143</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4101,25 +4110,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.09295774647887324</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C86">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D86">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>322</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4127,25 +4136,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.08928571428571429</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="C87">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D87">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E87">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="F87">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>408</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4153,25 +4162,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.08673469387755102</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="C88">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D88">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>179</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4179,25 +4188,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.0859504132231405</v>
+        <v>0.09405940594059406</v>
       </c>
       <c r="C89">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D89">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E89">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F89">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4205,25 +4214,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08152173913043478</v>
+        <v>0.09375</v>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D90">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E90">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="F90">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>169</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4231,25 +4240,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07885304659498207</v>
+        <v>0.09248554913294797</v>
       </c>
       <c r="C91">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D91">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E91">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>257</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4257,25 +4266,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.06329113924050633</v>
+        <v>0.07942238267148015</v>
       </c>
       <c r="C92">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D92">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E92">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="F92">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>296</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4283,25 +4292,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05874840357598978</v>
+        <v>0.07278481012658228</v>
       </c>
       <c r="C93">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D93">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E93">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="F93">
-        <v>0.8100000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>737</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4309,25 +4318,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.05868544600938967</v>
+        <v>0.06775700934579439</v>
       </c>
       <c r="C94">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D94">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E94">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="F94">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4335,25 +4344,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05521472392638037</v>
+        <v>0.05373831775700934</v>
       </c>
       <c r="C95">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D95">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E95">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="F95">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>616</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4361,25 +4370,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.05373831775700934</v>
+        <v>0.04900459418070444</v>
       </c>
       <c r="C96">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D96">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E96">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
       <c r="F96">
-        <v>0.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>405</v>
+        <v>621</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4387,25 +4396,129 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.03006012024048096</v>
+        <v>0.0489060489060489</v>
       </c>
       <c r="C97">
+        <v>38</v>
+      </c>
+      <c r="D97">
+        <v>55</v>
+      </c>
+      <c r="E97">
+        <v>0.31</v>
+      </c>
+      <c r="F97">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>0.04590818363273453</v>
+      </c>
+      <c r="C98">
+        <v>23</v>
+      </c>
+      <c r="D98">
+        <v>26</v>
+      </c>
+      <c r="E98">
+        <v>0.12</v>
+      </c>
+      <c r="F98">
+        <v>0.88</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>0.04297994269340974</v>
+      </c>
+      <c r="C99">
         <v>15</v>
       </c>
-      <c r="D97">
-        <v>20</v>
-      </c>
-      <c r="E97">
-        <v>0.25</v>
-      </c>
-      <c r="F97">
-        <v>0.75</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>484</v>
+      <c r="D99">
+        <v>17</v>
+      </c>
+      <c r="E99">
+        <v>0.12</v>
+      </c>
+      <c r="F99">
+        <v>0.88</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>0.03881278538812785</v>
+      </c>
+      <c r="C100">
+        <v>17</v>
+      </c>
+      <c r="D100">
+        <v>26</v>
+      </c>
+      <c r="E100">
+        <v>0.35</v>
+      </c>
+      <c r="F100">
+        <v>0.65</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>0.02209131075110457</v>
+      </c>
+      <c r="C101">
+        <v>15</v>
+      </c>
+      <c r="D101">
+        <v>28</v>
+      </c>
+      <c r="E101">
+        <v>0.46</v>
+      </c>
+      <c r="F101">
+        <v>0.54</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>664</v>
       </c>
     </row>
   </sheetData>
